--- a/doc/基本設計/テーブル定義書_2020_07_11.xlsx
+++ b/doc/基本設計/テーブル定義書_2020_07_11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katachi\Documents\20.02.11開発\document-sample-master\02.詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\self_monitoring\doc\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A564F-4B77-4DF5-AFAD-EA8005DA246B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EAE0EE-133E-42E3-948A-D57F71BBED87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>システムの名前を入力します。</t>
         </r>
@@ -51,6 +53,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>あなたのお名前を入力します。</t>
         </r>
@@ -63,6 +67,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>作成した日付を入力します。</t>
         </r>
@@ -75,6 +81,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>データベース名を入力します。</t>
         </r>
@@ -87,6 +95,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>更新した日付を入力します。</t>
         </r>
@@ -99,6 +109,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>実際のテーブル名ではなく、日本語での呼び名を入力します。</t>
         </r>
@@ -111,6 +123,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">システムで使用するデータベースの種類、バージョンを入力します。
 </t>
@@ -124,6 +138,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>実際のデータベースの中での名前を入力します。</t>
         </r>
@@ -136,6 +152,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>テーブルで使用するデフォルトの文字コードと照合順序です。</t>
         </r>
@@ -148,6 +166,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>実際のカラム系ではなく、日本語での呼び名を入力します。</t>
         </r>
@@ -160,6 +180,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>テーブル内での実際のカラム名を入力します。</t>
         </r>
@@ -172,6 +194,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>カラムのデータ型を入力します。</t>
         </r>
@@ -184,6 +208,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>NULL不許可のとき→Yes
 NULL許可のとき→何も記載しない</t>
@@ -197,6 +223,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>カラムのデフォルト値があるときは、その値を入力します。</t>
         </r>
@@ -209,6 +237,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>備考欄です。
 値が意味すること
@@ -224,6 +254,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>カラムにインデックスをtける時は、インデックス名を入力します。</t>
         </r>
@@ -236,6 +268,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>インデックスをつけるカラム名を入力します。
 複合インデックスの場合は、すべてのカラム名を入力します。</t>
@@ -249,6 +283,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>主キーのとき→Yes
 主キーでないとき→No</t>
@@ -262,6 +298,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>値をユニーク（一意）にするとき→Yes
 しないとき→No</t>
@@ -275,6 +313,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>その他、説明が必要であれば、入力します。</t>
         </r>
@@ -297,6 +337,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>システムの名前を入力します。</t>
         </r>
@@ -319,6 +361,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>システムの名前を入力します。</t>
         </r>
@@ -329,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="203">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -630,85 +674,16 @@
     <t>2020/07/03</t>
   </si>
   <si>
-    <t>記録日</t>
-  </si>
-  <si>
-    <t>entries_date</t>
-  </si>
-  <si>
-    <t>睡眠開始時間</t>
-  </si>
-  <si>
-    <t>sleep_start_time</t>
-  </si>
-  <si>
     <t>睡眠は日付をまたぐと思われるので、time型では情報が欠落します。datetime型が適当ではないかと思います。</t>
-  </si>
-  <si>
-    <t>睡眠終了時間</t>
-  </si>
-  <si>
-    <t>sleep_end_time</t>
-  </si>
-  <si>
-    <t>昼寝したか</t>
-  </si>
-  <si>
-    <t>nap</t>
-  </si>
-  <si>
-    <t>昼寝開始時間</t>
-  </si>
-  <si>
-    <t>nap_start_time</t>
   </si>
   <si>
     <t>昼寝も日付をまたぐ可能性があるのであれば、datetime型がいいです。</t>
   </si>
   <si>
-    <t>昼寝終了時間</t>
-  </si>
-  <si>
-    <t>nap_end_time</t>
-  </si>
-  <si>
-    <t>朝起きた時の熟睡感</t>
-  </si>
-  <si>
-    <t>sound_sleep</t>
-  </si>
-  <si>
-    <t>0:○　1:×　2:△</t>
-  </si>
-  <si>
     <t>体調・精神信号</t>
   </si>
   <si>
-    <t>spirit_signal</t>
-  </si>
-  <si>
-    <t>0:青 1:緑 2:黄 3:橙 4:赤 5:黒</t>
-  </si>
-  <si>
-    <t>行動指針ID</t>
-  </si>
-  <si>
-    <t>activity_id</t>
-  </si>
-  <si>
-    <t>天気</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
     <t>「出来事」の項目は、「出来事」のテーブルと何か関連性がありますか？</t>
-  </si>
-  <si>
-    <t>気づいたこと</t>
-  </si>
-  <si>
-    <t>notice</t>
   </si>
   <si>
     <t>varchar(1000)</t>
@@ -730,12 +705,6 @@
   </si>
   <si>
     <t>項目</t>
-  </si>
-  <si>
-    <t>略称にする</t>
-  </si>
-  <si>
-    <t>short_done</t>
   </si>
   <si>
     <r>
@@ -778,34 +747,13 @@
     </r>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>略称</t>
-  </si>
-  <si>
-    <t>short_name</t>
   </si>
   <si>
     <t>varchar(5)</t>
   </si>
   <si>
-    <t>表示不要</t>
-  </si>
-  <si>
-    <t>display_unnecessary</t>
-  </si>
-  <si>
     <t>0:表示　1:非表示</t>
-  </si>
-  <si>
-    <t>色</t>
-  </si>
-  <si>
-    <t>color</t>
   </si>
   <si>
     <t>0:青 1:黄 2:追加黄 3:追加橙 4:追加赤</t>
@@ -817,15 +765,6 @@
     <t>2020/07/01</t>
   </si>
   <si>
-    <t>親ID</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>condition_level</t>
-  </si>
-  <si>
     <t>act_guideline</t>
   </si>
   <si>
@@ -835,112 +774,13 @@
     <t>「体調管理」テーブルの「行動指針ID」と関連付けされますね？</t>
   </si>
   <si>
-    <r>
-      <t>0:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>黄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>橙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>黒</t>
-    </r>
-  </si>
-  <si>
     <t>関連づけます</t>
-  </si>
-  <si>
-    <t>表示なし</t>
-  </si>
-  <si>
-    <t>do_not_need</t>
   </si>
   <si>
     <t>一週間の出来事</t>
   </si>
   <si>
     <t>weekday_event</t>
-  </si>
-  <si>
-    <t>曜日</t>
-  </si>
-  <si>
-    <t>weekday</t>
-  </si>
-  <si>
-    <t>0〜6:月〜日曜日</t>
-  </si>
-  <si>
-    <t>weekday_item</t>
-  </si>
-  <si>
-    <t>番号</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>0:1番目 1:2番目 2:3番目</t>
   </si>
   <si>
     <t>「1週間の出来事」は、「体調管理」テーブルの「出来事」と関連性がありますか？</t>
@@ -1016,11 +856,504 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>出来事ID</t>
+    <t>monitoring</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>event_id</t>
+    <t>create_date_time</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>update_date_time</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>entries_date</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>sleep_start_time</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>sleep_end_time</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>nap</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>nap_start_time</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>nap_end_time</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>sound_sleep</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>spirit_signal</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>行動指針ID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>activity_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1:×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>△</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>0:青 1:緑 2:黄 3:橙 4:赤 5:黒</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記録日</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>睡眠開始時間</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>睡眠終了時間</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>昼寝したか</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>昼寝開始時間</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>昼寝終了時間</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>朝起きた時の熟睡感</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>天気</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>気づいたこと</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>short_done</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>short_name</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>表示不要</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>色</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>略称にする</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>略称</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>physical_condition_items</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>display_unnecessary</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>condition_levels</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>condition_level</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>体調レベル</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>do_not_need</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>表示なし</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>0:表示　1:非表示</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>橙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>黒</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>weekday_item</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>0:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>番目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>番目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>番目</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月〜日曜日</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>出来事2</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>出来事1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>出来事3</t>
+    <rPh sb="0" eb="3">
+      <t>デキゴト</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>event1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>event2</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>event3</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>セルフモニタリングID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>monitoring_id</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1028,7 +1361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1100,6 +1433,32 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2045,7 +2404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2325,6 +2684,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2370,24 +2753,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2424,7 +2789,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2693,17 +3058,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="105"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2729,17 +3094,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="102"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2765,17 +3130,17 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="94"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2801,17 +3166,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2837,17 +3202,17 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2870,14 +3235,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2900,14 +3265,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2930,12 +3295,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2958,12 +3323,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3529,10 +3894,10 @@
       <c r="B26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="109"/>
+      <c r="D26" s="96"/>
       <c r="E26" s="30" t="s">
         <v>64</v>
       </c>
@@ -3569,10 +3934,10 @@
       <c r="B27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="111"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="33" t="s">
         <v>33</v>
       </c>
@@ -3607,10 +3972,10 @@
       <c r="B28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="37" t="s">
         <v>24</v>
       </c>
@@ -10012,21 +10377,21 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10047,7 +10412,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10161,7 +10526,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>71</v>
@@ -10195,7 +10560,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="3"/>
@@ -10227,10 +10592,10 @@
         <v>74</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -10261,7 +10626,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="3"/>
@@ -10293,7 +10658,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="3"/>
@@ -16612,7 +16977,7 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/</oddFooter>
@@ -16676,17 +17041,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="105"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>81</v>
@@ -16714,15 +17079,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="102"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -16748,15 +17113,15 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -16782,17 +17147,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -16818,13 +17183,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -16847,14 +17212,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -16877,14 +17242,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -16907,12 +17272,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -16935,12 +17300,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -17127,7 +17492,7 @@
       <c r="G15" s="56"/>
       <c r="H15" s="3"/>
       <c r="I15" s="92" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -17320,10 +17685,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="D20" s="53" t="s">
         <v>88</v>
@@ -17528,10 +17893,10 @@
       <c r="B26" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="111"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="65" t="s">
         <v>64</v>
       </c>
@@ -17568,10 +17933,10 @@
       <c r="B27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="69" t="s">
         <v>33</v>
       </c>
@@ -17606,8 +17971,8 @@
       <c r="B28" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="68"/>
       <c r="F28" s="71" t="s">
         <v>84</v>
@@ -17642,8 +18007,8 @@
       <c r="B29" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="113"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="37"/>
       <c r="F29" s="73" t="s">
         <v>84</v>
@@ -24076,10 +24441,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -24129,17 +24494,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="105"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>81</v>
@@ -24167,17 +24532,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="102"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -24210,10 +24575,10 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="94"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -24239,17 +24604,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -24275,13 +24640,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="107"/>
+      <c r="C6" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="115"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -24304,14 +24669,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -24334,14 +24699,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -24364,12 +24729,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -24392,12 +24757,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -24564,11 +24929,11 @@
       <c r="A15" s="52">
         <v>2</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>35</v>
+      <c r="B15" s="128" t="s">
+        <v>155</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -24604,11 +24969,11 @@
       <c r="A16" s="52">
         <v>3</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>53</v>
+      <c r="B16" s="77" t="s">
+        <v>138</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>55</v>
@@ -24646,11 +25011,11 @@
       <c r="A17" s="52">
         <v>4</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>58</v>
+      <c r="B17" s="77" t="s">
+        <v>156</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>55</v>
@@ -24688,11 +25053,11 @@
       <c r="A18" s="52">
         <v>5</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>99</v>
+      <c r="B18" s="77" t="s">
+        <v>157</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>55</v>
@@ -24731,10 +25096,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="D19" s="78" t="s">
         <v>55</v>
@@ -24748,7 +25113,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -24772,11 +25137,11 @@
       <c r="A20" s="52">
         <v>7</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>104</v>
+      <c r="B20" s="77" t="s">
+        <v>159</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D20" s="78" t="s">
         <v>55</v>
@@ -24811,13 +25176,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="54" t="s">
@@ -24851,10 +25216,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D22" s="78" t="s">
         <v>55</v>
@@ -24864,7 +25229,7 @@
       <c r="G22" s="79"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -24889,10 +25254,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D23" s="78" t="s">
         <v>55</v>
@@ -24925,18 +25290,18 @@
         <v>11</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
       <c r="G24" s="56" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -24963,10 +25328,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D25" s="53" t="s">
         <v>50</v>
@@ -24974,7 +25339,7 @@
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
       <c r="G25" s="79" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -25001,10 +25366,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>32</v>
@@ -25037,10 +25402,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>32</v>
@@ -25073,10 +25438,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>39</v>
@@ -25086,7 +25451,7 @@
       <c r="G28" s="79"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -25110,14 +25475,14 @@
       <c r="A29" s="52">
         <v>16</v>
       </c>
-      <c r="B29" s="126" t="s">
-        <v>180</v>
+      <c r="B29" s="94" t="s">
+        <v>195</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>32</v>
+        <v>199</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -25142,26 +25507,24 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="11.25" customHeight="1">
+    <row r="30" spans="1:26" s="93" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="52">
         <v>17</v>
       </c>
-      <c r="B30" s="77" t="s">
-        <v>124</v>
+      <c r="B30" s="94" t="s">
+        <v>197</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
       <c r="G30" s="79"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="57" t="s">
-        <v>127</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -25184,14 +25547,22 @@
       <c r="A31" s="52">
         <v>18</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>103</v>
+      </c>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
       <c r="G31" s="79"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="57" t="s">
+        <v>104</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -25214,18 +25585,12 @@
       <c r="A32" s="52">
         <v>19</v>
       </c>
-      <c r="B32" s="59" t="s">
-        <v>84</v>
-      </c>
+      <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
-      <c r="F32" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>84</v>
-      </c>
+      <c r="F32" s="59"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -25247,17 +25612,19 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A33" s="81"/>
-      <c r="B33" s="61" t="s">
+      <c r="A33" s="52">
+        <v>20</v>
+      </c>
+      <c r="B33" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="58" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="3"/>
@@ -25281,13 +25648,19 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>84</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -25309,9 +25682,7 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -25339,25 +25710,15 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A36" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="66" t="s">
-        <v>21</v>
-      </c>
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -25379,23 +25740,25 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A37" s="67">
-        <v>1</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="118"/>
-      <c r="E37" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="70"/>
+      <c r="A37" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="98"/>
+      <c r="E37" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="66" t="s">
+        <v>21</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -25418,20 +25781,22 @@
     </row>
     <row r="38" spans="1:26" ht="11.25" customHeight="1">
       <c r="A38" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="119"/>
+        <v>66</v>
+      </c>
+      <c r="C38" s="119" t="s">
+        <v>31</v>
+      </c>
       <c r="D38" s="120"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>84</v>
-      </c>
+      <c r="E38" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="70"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -25453,19 +25818,19 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A39" s="35">
-        <v>3</v>
-      </c>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="67">
+        <v>2</v>
+      </c>
+      <c r="B39" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="73" t="s">
+      <c r="C39" s="121"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="74" t="s">
+      <c r="G39" s="72" t="s">
         <v>84</v>
       </c>
       <c r="H39" s="3"/>
@@ -25489,13 +25854,21 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="35">
+        <v>3</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="116"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>84</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -25546,9 +25919,7 @@
     </row>
     <row r="42" spans="1:26" ht="11.25" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -25577,7 +25948,7 @@
     <row r="43" spans="1:26" ht="11.25" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -25606,7 +25977,9 @@
     </row>
     <row r="44" spans="1:26" ht="11.25" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -31092,7 +31465,34 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A240" s="3"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="3"/>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
+      <c r="Y240" s="3"/>
+      <c r="Z240" s="3"/>
+    </row>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -31854,12 +32254,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C5:D5"/>
@@ -31869,8 +32270,8 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -31891,7 +32292,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -31940,17 +32341,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="105"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -31976,17 +32377,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="93" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="107"/>
+      <c r="C3" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="115"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="94"/>
+      <c r="F3" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="102"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -32012,17 +32413,17 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="94"/>
+      <c r="F4" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="102"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -32048,17 +32449,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="107"/>
+      <c r="C5" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="115"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -32084,13 +32485,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -32113,14 +32514,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -32143,14 +32544,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -32173,12 +32574,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -32201,12 +32602,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -32335,7 +32736,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -32373,11 +32774,11 @@
       <c r="A15" s="82">
         <v>2</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>133</v>
+      <c r="B15" s="77" t="s">
+        <v>172</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>50</v>
@@ -32389,7 +32790,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -32416,13 +32817,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E16" s="53" t="s">
         <v>33</v>
@@ -32454,13 +32855,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>33</v>
@@ -32494,10 +32895,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>50</v>
@@ -32509,7 +32910,7 @@
         <v>51</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -32535,11 +32936,11 @@
       <c r="A19" s="82">
         <v>6</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>144</v>
+      <c r="B19" s="77" t="s">
+        <v>171</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D19" s="53" t="s">
         <v>32</v>
@@ -32551,7 +32952,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -32776,10 +33177,10 @@
       <c r="B26" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="111"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="65" t="s">
         <v>64</v>
       </c>
@@ -32816,10 +33217,10 @@
       <c r="B27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="69" t="s">
         <v>33</v>
       </c>
@@ -32854,8 +33255,8 @@
       <c r="B28" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="68"/>
       <c r="F28" s="71" t="s">
         <v>84</v>
@@ -32890,8 +33291,8 @@
       <c r="B29" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="113"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="37"/>
       <c r="F29" s="73" t="s">
         <v>84</v>
@@ -32978,7 +33379,7 @@
     <row r="32" spans="1:26" ht="11.25" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -33008,7 +33409,7 @@
     <row r="33" spans="1:26" ht="11.25" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -39331,7 +39732,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -39381,17 +39782,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="105"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -39417,15 +39818,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="94"/>
+      <c r="F3" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="102"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -39458,8 +39859,8 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -39485,17 +39886,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -39521,13 +39922,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -39550,14 +39951,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -39580,14 +39981,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -39610,12 +40011,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -39638,12 +40039,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -39769,10 +40170,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -39811,10 +40212,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -39849,10 +40250,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>32</v>
@@ -39887,13 +40288,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>33</v>
@@ -40081,10 +40482,10 @@
       <c r="B23" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="111"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="65" t="s">
         <v>64</v>
       </c>
@@ -40121,10 +40522,10 @@
       <c r="B24" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="118"/>
+      <c r="D24" s="120"/>
       <c r="E24" s="69" t="s">
         <v>33</v>
       </c>
@@ -40159,8 +40560,8 @@
       <c r="B25" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="68"/>
       <c r="F25" s="71" t="s">
         <v>84</v>
@@ -40195,8 +40596,8 @@
       <c r="B26" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="113"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="37"/>
       <c r="F26" s="73" t="s">
         <v>84</v>
@@ -40283,7 +40684,7 @@
     <row r="29" spans="1:26" ht="11.25" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -40313,7 +40714,7 @@
     <row r="30" spans="1:26" ht="11.25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -40343,7 +40744,7 @@
     <row r="31" spans="1:26" ht="11.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -46640,7 +47041,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -46687,17 +47090,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="105"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -46723,15 +47126,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="94"/>
+      <c r="F3" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="102"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -46757,15 +47160,15 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="107"/>
+      <c r="C4" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="115"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -46791,17 +47194,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="107"/>
+      <c r="C5" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="115"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -46827,13 +47230,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -46856,14 +47259,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -46886,14 +47289,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -46916,12 +47319,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -46944,12 +47347,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -47078,7 +47481,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="D14" s="86" t="s">
         <v>32</v>
@@ -47094,7 +47497,7 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -47119,13 +47522,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="E15" s="53" t="s">
         <v>33</v>
@@ -47134,11 +47537,11 @@
         <v>84</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="89" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -47163,10 +47566,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>39</v>
@@ -47205,10 +47608,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>50</v>
@@ -47220,7 +47623,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -47451,10 +47854,10 @@
       <c r="B24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="111"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="65" t="s">
         <v>64</v>
       </c>
@@ -47491,10 +47894,10 @@
       <c r="B25" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="118"/>
+      <c r="D25" s="120"/>
       <c r="E25" s="69" t="s">
         <v>33</v>
       </c>
@@ -47529,8 +47932,8 @@
       <c r="B26" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="68"/>
       <c r="F26" s="71" t="s">
         <v>84</v>
@@ -47565,8 +47968,8 @@
       <c r="B27" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="113"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="37"/>
       <c r="F27" s="73" t="s">
         <v>84</v>
@@ -54004,7 +54407,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -54053,17 +54456,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="124" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="104"/>
+      <c r="C2" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="112"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="105"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -54089,15 +54492,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="94"/>
+      <c r="F3" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="102"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -54123,15 +54526,15 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="107"/>
+      <c r="C4" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="115"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -54157,17 +54560,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -54193,13 +54596,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -54222,14 +54625,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -54252,14 +54655,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -54282,12 +54685,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -54310,12 +54713,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -54444,7 +54847,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -54483,10 +54886,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -54498,7 +54901,7 @@
         <v>84</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -54528,7 +54931,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>39</v>
@@ -54567,13 +54970,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>33</v>
@@ -54582,7 +54985,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -54811,10 +55214,10 @@
       <c r="B24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="111"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="65" t="s">
         <v>64</v>
       </c>
@@ -54851,10 +55254,10 @@
       <c r="B25" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="118"/>
+      <c r="D25" s="120"/>
       <c r="E25" s="69" t="s">
         <v>33</v>
       </c>
@@ -54889,8 +55292,8 @@
       <c r="B26" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="68"/>
       <c r="F26" s="71" t="s">
         <v>84</v>
@@ -54925,8 +55328,8 @@
       <c r="B27" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="113"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="37"/>
       <c r="F27" s="73" t="s">
         <v>84</v>
@@ -55013,7 +55416,7 @@
     <row r="30" spans="1:26" ht="11.25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -55043,7 +55446,7 @@
     <row r="31" spans="1:26" ht="11.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="90" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>

--- a/doc/基本設計/テーブル定義書_2020_07_11.xlsx
+++ b/doc/基本設計/テーブル定義書_2020_07_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\self_monitoring\doc\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EAE0EE-133E-42E3-948A-D57F71BBED87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA52752-2D30-4690-8C76-6B8CD470E9AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="205">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -602,9 +602,6 @@
     <t>体調レベル</t>
   </si>
   <si>
-    <t>condition_levels</t>
-  </si>
-  <si>
     <t>行動指針</t>
   </si>
   <si>
@@ -680,9 +677,6 @@
     <t>昼寝も日付をまたぐ可能性があるのであれば、datetime型がいいです。</t>
   </si>
   <si>
-    <t>体調・精神信号</t>
-  </si>
-  <si>
     <t>「出来事」の項目は、「出来事」のテーブルと何か関連性がありますか？</t>
   </si>
   <si>
@@ -754,9 +748,6 @@
   </si>
   <si>
     <t>0:表示　1:非表示</t>
-  </si>
-  <si>
-    <t>0:青 1:黄 2:追加黄 3:追加橙 4:追加赤</t>
   </si>
   <si>
     <t>どのテーブルのどのカラムと関連付けられますか？</t>
@@ -1140,79 +1131,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <r>
-      <t>0:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>黄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>橙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>黒</t>
-    </r>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>weekday</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -1356,12 +1274,193 @@
     <t>monitoring_id</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>体調・精神信号</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>橙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>黒</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>追加黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>追加橙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>追加赤</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>condition_levels</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>physical_condition_items</t>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1460,6 +1559,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2690,6 +2796,27 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2709,9 +2836,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2736,21 +2860,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2787,9 +2896,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3058,17 +3164,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="112"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="113"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3094,17 +3200,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="115"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="102"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3130,17 +3236,17 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="102"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3166,17 +3272,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3202,17 +3308,17 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="102"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3235,14 +3341,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -3265,14 +3371,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -3295,12 +3401,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -3323,12 +3429,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3894,10 +4000,10 @@
       <c r="B26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="96"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="30" t="s">
         <v>64</v>
       </c>
@@ -3934,10 +4040,10 @@
       <c r="B27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="98"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="33" t="s">
         <v>33</v>
       </c>
@@ -3972,10 +4078,10 @@
       <c r="B28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="100"/>
+      <c r="D28" s="107"/>
       <c r="E28" s="37" t="s">
         <v>24</v>
       </c>
@@ -10377,6 +10483,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -10386,12 +10498,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10526,7 +10632,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>71</v>
@@ -10560,7 +10666,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="3"/>
@@ -10592,10 +10698,10 @@
         <v>74</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -10623,10 +10729,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="3"/>
@@ -10655,10 +10761,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="3"/>
@@ -17041,20 +17147,20 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="112"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="113"/>
+      <c r="F2" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="101"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -17079,15 +17185,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="115"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="102"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -17111,17 +17217,17 @@
     <row r="4" spans="1:26" ht="11.25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -17147,17 +17253,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -17183,13 +17289,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="114" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="115"/>
+      <c r="C6" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -17212,14 +17318,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -17242,14 +17348,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="B8" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -17272,12 +17378,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -17300,12 +17406,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -17443,14 +17549,14 @@
         <v>33</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -17475,24 +17581,24 @@
         <v>2</v>
       </c>
       <c r="B15" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="D15" s="53" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>88</v>
       </c>
       <c r="E15" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="56"/>
       <c r="H15" s="3"/>
       <c r="I15" s="92" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -17517,22 +17623,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>90</v>
-      </c>
       <c r="D16" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -17559,22 +17665,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="53" t="s">
-        <v>92</v>
-      </c>
       <c r="D17" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -17601,10 +17707,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>94</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>50</v>
@@ -17613,10 +17719,10 @@
         <v>33</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -17643,10 +17749,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="53" t="s">
         <v>96</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>97</v>
       </c>
       <c r="D19" s="53" t="s">
         <v>32</v>
@@ -17655,10 +17761,10 @@
         <v>33</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -17685,22 +17791,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -17731,10 +17837,10 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -17761,16 +17867,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -17797,16 +17903,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
       <c r="E23" s="61"/>
       <c r="F23" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -17893,10 +17999,10 @@
       <c r="B26" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="65" t="s">
         <v>64</v>
       </c>
@@ -17933,10 +18039,10 @@
       <c r="B27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="69" t="s">
         <v>33</v>
       </c>
@@ -17969,16 +18075,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="122"/>
+        <v>83</v>
+      </c>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
       <c r="E28" s="68"/>
       <c r="F28" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -18005,16 +18111,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="C29" s="117"/>
+      <c r="D29" s="107"/>
       <c r="E29" s="37"/>
       <c r="F29" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -24443,8 +24549,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -24494,20 +24600,20 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="112"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="113"/>
+      <c r="F2" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="101"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -24532,17 +24638,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="115"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="102"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -24566,7 +24672,7 @@
     <row r="4" spans="1:26" ht="11.25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="75" t="s">
         <v>18</v>
@@ -24575,10 +24681,10 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="102"/>
+      <c r="F4" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="97"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -24604,17 +24710,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -24640,13 +24746,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="115"/>
+      <c r="C6" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -24669,14 +24775,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -24699,14 +24805,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="B8" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -24729,12 +24835,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -24757,12 +24863,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -24900,7 +25006,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>34</v>
@@ -24929,11 +25035,11 @@
       <c r="A15" s="52">
         <v>2</v>
       </c>
-      <c r="B15" s="128" t="s">
-        <v>155</v>
+      <c r="B15" s="95" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -24942,7 +25048,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="56"/>
       <c r="H15" s="3"/>
@@ -24970,10 +25076,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>55</v>
@@ -25012,10 +25118,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>55</v>
@@ -25054,10 +25160,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>55</v>
@@ -25066,10 +25172,10 @@
         <v>33</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -25096,24 +25202,24 @@
         <v>6</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D19" s="78" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -25138,10 +25244,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" s="78" t="s">
         <v>55</v>
@@ -25149,7 +25255,7 @@
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
       <c r="G20" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -25176,20 +25282,20 @@
         <v>8</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="53" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -25216,10 +25322,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D22" s="78" t="s">
         <v>55</v>
@@ -25229,7 +25335,7 @@
       <c r="G22" s="79"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -25254,10 +25360,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D23" s="78" t="s">
         <v>55</v>
@@ -25290,10 +25396,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D24" s="53" t="s">
         <v>32</v>
@@ -25301,7 +25407,7 @@
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
       <c r="G24" s="56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -25328,10 +25434,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25" s="53" t="s">
         <v>50</v>
@@ -25339,7 +25445,7 @@
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
       <c r="G25" s="79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -25366,10 +25472,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>32</v>
@@ -25402,10 +25508,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>32</v>
@@ -25438,10 +25544,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>39</v>
@@ -25451,7 +25557,7 @@
       <c r="G28" s="79"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -25476,10 +25582,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="59" t="s">
         <v>195</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>199</v>
       </c>
       <c r="D29" s="59" t="s">
         <v>39</v>
@@ -25512,10 +25618,10 @@
         <v>17</v>
       </c>
       <c r="B30" s="94" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D30" s="59" t="s">
         <v>39</v>
@@ -25548,20 +25654,20 @@
         <v>18</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
       <c r="G31" s="79"/>
       <c r="H31" s="3"/>
       <c r="I31" s="57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -25616,16 +25722,16 @@
         <v>20</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -25650,16 +25756,16 @@
     <row r="34" spans="1:26" ht="11.25" customHeight="1">
       <c r="A34" s="81"/>
       <c r="B34" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="61"/>
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -25746,10 +25852,10 @@
       <c r="B37" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="118" t="s">
+      <c r="C37" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="98"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="65" t="s">
         <v>64</v>
       </c>
@@ -25786,10 +25892,10 @@
       <c r="B38" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="119" t="s">
+      <c r="C38" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="120"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="69" t="s">
         <v>33</v>
       </c>
@@ -25822,16 +25928,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="122"/>
+        <v>83</v>
+      </c>
+      <c r="C39" s="122"/>
+      <c r="D39" s="123"/>
       <c r="E39" s="68"/>
       <c r="F39" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -25858,16 +25964,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="116"/>
-      <c r="D40" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="C40" s="117"/>
+      <c r="D40" s="107"/>
       <c r="E40" s="37"/>
       <c r="F40" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -25948,7 +26054,7 @@
     <row r="43" spans="1:26" ht="11.25" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -25978,7 +26084,7 @@
     <row r="44" spans="1:26" ht="11.25" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -32275,12 +32381,12 @@
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32291,8 +32397,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -32341,17 +32447,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="112"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="113"/>
+      <c r="F2" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="101"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -32377,17 +32483,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="115"/>
+      <c r="C3" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="98"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="102"/>
+      <c r="F3" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="97"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -32411,19 +32517,19 @@
     <row r="4" spans="1:26" ht="11.25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="102"/>
+      <c r="F4" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="97"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -32449,17 +32555,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="125" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="115"/>
+      <c r="C5" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="98"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -32485,13 +32591,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="115"/>
+      <c r="C6" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -32514,14 +32620,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -32544,14 +32650,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="B8" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -32574,12 +32680,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -32602,12 +32708,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -32733,10 +32839,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -32745,7 +32851,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>34</v>
@@ -32775,10 +32881,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>50</v>
@@ -32790,7 +32896,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -32817,13 +32923,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="53" t="s">
         <v>33</v>
@@ -32855,19 +32961,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="3"/>
@@ -32895,10 +33001,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>50</v>
@@ -32910,7 +33016,7 @@
         <v>51</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -32937,10 +33043,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D19" s="53" t="s">
         <v>32</v>
@@ -32949,10 +33055,10 @@
         <v>33</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -32983,10 +33089,10 @@
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -33017,10 +33123,10 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -33051,10 +33157,10 @@
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -33081,16 +33187,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
       <c r="E23" s="61"/>
       <c r="F23" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -33177,10 +33283,10 @@
       <c r="B26" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="65" t="s">
         <v>64</v>
       </c>
@@ -33217,10 +33323,10 @@
       <c r="B27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="69" t="s">
         <v>33</v>
       </c>
@@ -33253,16 +33359,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="122"/>
+        <v>83</v>
+      </c>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
       <c r="E28" s="68"/>
       <c r="F28" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -33289,16 +33395,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="C29" s="117"/>
+      <c r="D29" s="107"/>
       <c r="E29" s="37"/>
       <c r="F29" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -33379,7 +33485,7 @@
     <row r="32" spans="1:26" ht="11.25" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -33409,7 +33515,7 @@
     <row r="33" spans="1:26" ht="11.25" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -39732,7 +39838,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -39782,17 +39888,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="112"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="113"/>
+      <c r="F2" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="101"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -39818,15 +39924,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="102"/>
+      <c r="F3" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="97"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -39850,17 +39956,17 @@
     <row r="4" spans="1:26" ht="11.25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="D4" s="76"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -39886,17 +39992,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -39922,13 +40028,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="115"/>
+      <c r="C6" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -39951,14 +40057,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -39981,14 +40087,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="B8" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -40011,12 +40117,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -40039,12 +40145,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -40170,10 +40276,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -40182,7 +40288,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>34</v>
@@ -40212,10 +40318,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -40250,10 +40356,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>32</v>
@@ -40288,10 +40394,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>32</v>
@@ -40352,16 +40458,16 @@
     <row r="19" spans="1:26" ht="11.25" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -40386,16 +40492,16 @@
     <row r="20" spans="1:26" ht="11.25" customHeight="1">
       <c r="A20" s="81"/>
       <c r="B20" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
       <c r="F20" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -40482,10 +40588,10 @@
       <c r="B23" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="65" t="s">
         <v>64</v>
       </c>
@@ -40522,10 +40628,10 @@
       <c r="B24" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="120"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="69" t="s">
         <v>33</v>
       </c>
@@ -40558,16 +40664,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
+        <v>83</v>
+      </c>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
       <c r="E25" s="68"/>
       <c r="F25" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -40594,16 +40700,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="C26" s="117"/>
+      <c r="D26" s="107"/>
       <c r="E26" s="37"/>
       <c r="F26" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -40684,7 +40790,7 @@
     <row r="29" spans="1:26" ht="11.25" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -40714,7 +40820,7 @@
     <row r="30" spans="1:26" ht="11.25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -40744,7 +40850,7 @@
     <row r="31" spans="1:26" ht="11.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -47042,7 +47148,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -47090,17 +47196,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="126" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="112"/>
+      <c r="C2" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="100"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="113"/>
+      <c r="F2" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="101"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -47126,15 +47232,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="115"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="102"/>
+      <c r="F3" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="97"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -47158,17 +47264,17 @@
     <row r="4" spans="1:26" ht="11.25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="115"/>
+        <v>81</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="98"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -47194,17 +47300,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="115"/>
+      <c r="C5" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="98"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -47230,13 +47336,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="115"/>
+      <c r="C6" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -47259,14 +47365,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -47289,14 +47395,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="B8" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -47319,12 +47425,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -47347,12 +47453,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -47481,7 +47587,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="86" t="s">
         <v>32</v>
@@ -47490,14 +47596,14 @@
         <v>33</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="88" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -47522,26 +47628,26 @@
         <v>2</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E15" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -47566,10 +47672,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>39</v>
@@ -47578,10 +47684,10 @@
         <v>33</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -47608,10 +47714,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>50</v>
@@ -47623,7 +47729,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -47650,16 +47756,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
       <c r="F18" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -47686,16 +47792,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -47722,16 +47828,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -47758,16 +47864,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
       <c r="F21" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -47854,10 +47960,10 @@
       <c r="B24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="98"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="65" t="s">
         <v>64</v>
       </c>
@@ -47894,10 +48000,10 @@
       <c r="B25" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="120"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="69" t="s">
         <v>33</v>
       </c>
@@ -47930,16 +48036,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
+        <v>83</v>
+      </c>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
       <c r="E26" s="68"/>
       <c r="F26" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -47966,16 +48072,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="37"/>
       <c r="F27" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -54456,17 +54562,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="112"/>
+      <c r="C2" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="100"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="113"/>
+      <c r="F2" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="101"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -54492,15 +54598,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="115"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="102"/>
+      <c r="F3" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="97"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -54524,17 +54630,17 @@
     <row r="4" spans="1:26" ht="11.25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="115"/>
+        <v>81</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="98"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -54560,17 +54666,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="115"/>
+      <c r="C5" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="98"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -54596,13 +54702,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="115"/>
+      <c r="C6" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -54625,14 +54731,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -54655,14 +54761,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="B8" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -54685,12 +54791,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -54713,12 +54819,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -54847,7 +54953,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -54856,7 +54962,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>34</v>
@@ -54886,10 +54992,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -54898,10 +55004,10 @@
         <v>33</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -54928,10 +55034,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>39</v>
@@ -54940,10 +55046,10 @@
         <v>33</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -54970,10 +55076,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>32</v>
@@ -54985,7 +55091,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -55016,10 +55122,10 @@
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
       <c r="F18" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -55046,16 +55152,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -55082,16 +55188,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -55118,16 +55224,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
       <c r="F21" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -55214,10 +55320,10 @@
       <c r="B24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="98"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="65" t="s">
         <v>64</v>
       </c>
@@ -55254,10 +55360,10 @@
       <c r="B25" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="120"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="69" t="s">
         <v>33</v>
       </c>
@@ -55290,16 +55396,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
+        <v>83</v>
+      </c>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
       <c r="E26" s="68"/>
       <c r="F26" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -55326,16 +55432,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="37"/>
       <c r="F27" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -55416,7 +55522,7 @@
     <row r="30" spans="1:26" ht="11.25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -55446,7 +55552,7 @@
     <row r="31" spans="1:26" ht="11.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="90" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>

--- a/doc/基本設計/テーブル定義書_2020_07_11.xlsx
+++ b/doc/基本設計/テーブル定義書_2020_07_11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\self_monitoring\doc\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA52752-2D30-4690-8C76-6B8CD470E9AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51694AE0-66D4-464F-8DDD-169AAB811237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="200">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -701,46 +701,6 @@
     <t>項目</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：正式名称　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：略称</t>
-    </r>
-  </si>
-  <si>
     <t>varchar(50)</t>
   </si>
   <si>
@@ -899,14 +859,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>行動指針ID</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>activity_id</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>weather</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -981,10 +933,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>0:青 1:緑 2:黄 3:橙 4:赤 5:黒</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1051,10 +999,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>short_done</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>item</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -1068,10 +1012,6 @@
   </si>
   <si>
     <t>色</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>略称にする</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -1453,6 +1393,16 @@
   </si>
   <si>
     <t>physical_condition_items</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>0:青 1:緑 2:黄 3:橙 4:赤 5:黒(行動指針IDも兼ねる)</t>
+    <rPh sb="24" eb="28">
+      <t>コウドウシシン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -2799,24 +2749,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2836,6 +2768,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2860,6 +2795,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3164,17 +3114,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="100"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3200,17 +3150,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="98"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3236,17 +3186,17 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="97"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3272,17 +3222,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3308,17 +3258,17 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="97"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3341,14 +3291,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -3371,14 +3321,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -3401,12 +3351,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -3429,12 +3379,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4000,10 +3950,10 @@
       <c r="B26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="103"/>
+      <c r="D26" s="97"/>
       <c r="E26" s="30" t="s">
         <v>64</v>
       </c>
@@ -4040,10 +3990,10 @@
       <c r="B27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="105"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="33" t="s">
         <v>33</v>
       </c>
@@ -4078,10 +4028,10 @@
       <c r="B28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="107"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="37" t="s">
         <v>24</v>
       </c>
@@ -10483,12 +10433,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -10498,6 +10442,12 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10632,7 +10582,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>71</v>
@@ -10666,7 +10616,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="3"/>
@@ -10698,10 +10648,10 @@
         <v>74</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -10732,7 +10682,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="3"/>
@@ -10764,7 +10714,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="3"/>
@@ -17150,14 +17100,14 @@
       <c r="C2" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="100"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>80</v>
@@ -17185,15 +17135,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="98"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -17219,15 +17169,15 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="97"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -17253,17 +17203,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -17289,13 +17239,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="97"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -17318,14 +17268,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -17348,14 +17298,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -17378,12 +17328,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -17406,12 +17356,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -17598,7 +17548,7 @@
       <c r="G15" s="56"/>
       <c r="H15" s="3"/>
       <c r="I15" s="92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -17791,10 +17741,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="53" t="s">
         <v>87</v>
@@ -18002,7 +17952,7 @@
       <c r="C26" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="105"/>
+      <c r="D26" s="99"/>
       <c r="E26" s="65" t="s">
         <v>64</v>
       </c>
@@ -18114,7 +18064,7 @@
         <v>83</v>
       </c>
       <c r="C29" s="117"/>
-      <c r="D29" s="107"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="37"/>
       <c r="F29" s="73" t="s">
         <v>83</v>
@@ -24549,8 +24499,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -24603,14 +24553,14 @@
       <c r="C2" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="100"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>80</v>
@@ -24638,17 +24588,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="98"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -24681,10 +24631,10 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="97"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -24710,17 +24660,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -24746,13 +24696,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="98"/>
+      <c r="C6" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="113"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="97"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -24775,14 +24725,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -24805,14 +24755,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -24835,12 +24785,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -24863,12 +24813,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -25036,10 +24986,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -25076,10 +25026,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>55</v>
@@ -25118,10 +25068,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>55</v>
@@ -25160,10 +25110,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>55</v>
@@ -25202,10 +25152,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" s="78" t="s">
         <v>55</v>
@@ -25244,10 +25194,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="78" t="s">
         <v>55</v>
@@ -25282,10 +25232,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="53" t="s">
         <v>50</v>
@@ -25322,10 +25272,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="78" t="s">
         <v>55</v>
@@ -25360,10 +25310,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="78" t="s">
         <v>55</v>
@@ -25396,10 +25346,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="53" t="s">
         <v>32</v>
@@ -25407,7 +25357,7 @@
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
       <c r="G24" s="56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -25434,10 +25384,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="53" t="s">
         <v>50</v>
@@ -25445,7 +25395,7 @@
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
       <c r="G25" s="79" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -25472,10 +25422,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>146</v>
+        <v>157</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>144</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>32</v>
@@ -25507,14 +25457,14 @@
       <c r="A27" s="52">
         <v>14</v>
       </c>
-      <c r="B27" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>32</v>
+      <c r="B27" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -25543,11 +25493,11 @@
       <c r="A28" s="52">
         <v>15</v>
       </c>
-      <c r="B28" s="80" t="s">
-        <v>192</v>
+      <c r="B28" s="94" t="s">
+        <v>185</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>39</v>
@@ -25582,10 +25532,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D29" s="59" t="s">
         <v>39</v>
@@ -25617,14 +25567,14 @@
       <c r="A30" s="52">
         <v>17</v>
       </c>
-      <c r="B30" s="94" t="s">
-        <v>193</v>
+      <c r="B30" s="77" t="s">
+        <v>158</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
@@ -25653,15 +25603,9 @@
       <c r="A31" s="52">
         <v>18</v>
       </c>
-      <c r="B31" s="77" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>101</v>
-      </c>
+      <c r="B31" s="77"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
       <c r="G31" s="79"/>
@@ -25855,7 +25799,7 @@
       <c r="C37" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="105"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="65" t="s">
         <v>64</v>
       </c>
@@ -25967,7 +25911,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="117"/>
-      <c r="D40" s="107"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="37"/>
       <c r="F40" s="73" t="s">
         <v>83</v>
@@ -26084,7 +26028,7 @@
     <row r="44" spans="1:26" ht="11.25" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -32397,8 +32341,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -32450,14 +32394,14 @@
       <c r="C2" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="100"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -32483,17 +32427,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="98"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -32519,17 +32463,17 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="97"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -32558,14 +32502,14 @@
       <c r="C5" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -32591,13 +32535,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="98"/>
+      <c r="C6" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="113"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="97"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -32620,14 +32564,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -32650,14 +32594,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -32680,12 +32624,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -32708,12 +32652,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -32839,10 +32783,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -32880,24 +32824,20 @@
       <c r="A15" s="82">
         <v>2</v>
       </c>
-      <c r="B15" s="77" t="s">
-        <v>169</v>
+      <c r="B15" s="84" t="s">
+        <v>164</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="E15" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>108</v>
-      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -32923,10 +32863,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>109</v>
@@ -32934,7 +32874,9 @@
       <c r="E16" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="54" t="s">
+        <v>83</v>
+      </c>
       <c r="G16" s="56"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -32961,21 +32903,23 @@
         <v>4</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="56"/>
+        <v>51</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>110</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="83"/>
       <c r="J17" s="3"/>
@@ -33000,23 +32944,23 @@
       <c r="A18" s="82">
         <v>5</v>
       </c>
-      <c r="B18" s="84" t="s">
-        <v>167</v>
+      <c r="B18" s="77" t="s">
+        <v>163</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E18" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>111</v>
+        <v>83</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>195</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -33042,24 +32986,12 @@
       <c r="A19" s="82">
         <v>6</v>
       </c>
-      <c r="B19" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>201</v>
-      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -33286,7 +33218,7 @@
       <c r="C26" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="105"/>
+      <c r="D26" s="99"/>
       <c r="E26" s="65" t="s">
         <v>64</v>
       </c>
@@ -33398,7 +33330,7 @@
         <v>83</v>
       </c>
       <c r="C29" s="117"/>
-      <c r="D29" s="107"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="37"/>
       <c r="F29" s="73" t="s">
         <v>83</v>
@@ -33485,7 +33417,7 @@
     <row r="32" spans="1:26" ht="11.25" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -33515,7 +33447,7 @@
     <row r="33" spans="1:26" ht="11.25" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -39891,14 +39823,14 @@
       <c r="C2" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="100"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -39924,15 +39856,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="98"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="97"/>
+      <c r="F3" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="103"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -39959,14 +39891,14 @@
         <v>81</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D4" s="76"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="97"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -39995,14 +39927,14 @@
       <c r="C5" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -40028,13 +39960,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="98"/>
+      <c r="C6" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="113"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="97"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -40057,14 +39989,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -40087,14 +40019,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -40117,12 +40049,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -40145,12 +40077,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -40276,10 +40208,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -40318,10 +40250,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -40356,10 +40288,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>32</v>
@@ -40394,10 +40326,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>32</v>
@@ -40591,7 +40523,7 @@
       <c r="C23" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="105"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="65" t="s">
         <v>64</v>
       </c>
@@ -40703,7 +40635,7 @@
         <v>83</v>
       </c>
       <c r="C26" s="117"/>
-      <c r="D26" s="107"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="37"/>
       <c r="F26" s="73" t="s">
         <v>83</v>
@@ -40790,7 +40722,7 @@
     <row r="29" spans="1:26" ht="11.25" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -40820,7 +40752,7 @@
     <row r="30" spans="1:26" ht="11.25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -40850,7 +40782,7 @@
     <row r="31" spans="1:26" ht="11.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -47199,14 +47131,14 @@
       <c r="C2" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="100"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -47232,15 +47164,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="98"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -47266,15 +47198,15 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="98"/>
+      <c r="C4" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="113"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="97"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -47300,17 +47232,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="98"/>
+      <c r="C5" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="113"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -47336,13 +47268,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="97"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -47365,14 +47297,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -47395,14 +47327,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -47425,12 +47357,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -47453,12 +47385,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -47587,7 +47519,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" s="86" t="s">
         <v>32</v>
@@ -47603,7 +47535,7 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -47628,13 +47560,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>174</v>
-      </c>
       <c r="D15" s="53" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E15" s="53" t="s">
         <v>33</v>
@@ -47643,11 +47575,11 @@
         <v>83</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -47672,10 +47604,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>39</v>
@@ -47714,10 +47646,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>50</v>
@@ -47729,7 +47661,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -47963,7 +47895,7 @@
       <c r="C24" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="105"/>
+      <c r="D24" s="99"/>
       <c r="E24" s="65" t="s">
         <v>64</v>
       </c>
@@ -48075,7 +48007,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="117"/>
-      <c r="D27" s="107"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="37"/>
       <c r="F27" s="73" t="s">
         <v>83</v>
@@ -54563,16 +54495,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="100"/>
+        <v>117</v>
+      </c>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -54598,15 +54530,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="98"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -54632,15 +54564,15 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="98"/>
+      <c r="C4" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="113"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="97"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -54666,17 +54598,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -54702,13 +54634,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="97"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -54731,14 +54663,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -54761,14 +54693,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -54791,12 +54723,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -54819,12 +54751,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -54953,7 +54885,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>32</v>
@@ -54992,10 +54924,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>32</v>
@@ -55007,7 +54939,7 @@
         <v>83</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -55037,7 +54969,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>39</v>
@@ -55076,10 +55008,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>32</v>
@@ -55091,7 +55023,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -55323,7 +55255,7 @@
       <c r="C24" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="105"/>
+      <c r="D24" s="99"/>
       <c r="E24" s="65" t="s">
         <v>64</v>
       </c>
@@ -55435,7 +55367,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="117"/>
-      <c r="D27" s="107"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="37"/>
       <c r="F27" s="73" t="s">
         <v>83</v>
@@ -55522,7 +55454,7 @@
     <row r="30" spans="1:26" ht="11.25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -55552,7 +55484,7 @@
     <row r="31" spans="1:26" ht="11.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>

--- a/doc/基本設計/テーブル定義書_2020_07_11.xlsx
+++ b/doc/基本設計/テーブル定義書_2020_07_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\self_monitoring\doc\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51694AE0-66D4-464F-8DDD-169AAB811237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474D7217-37AD-4E30-9F2C-91AE0165A2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="205">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -1403,6 +1403,47 @@
     <rPh sb="31" eb="32">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>睡眠合計時間</t>
+    <rPh sb="0" eb="2">
+      <t>スイミン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>昼寝合計時時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヒルネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>nap_sum</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>sleep_sum</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -2460,7 +2501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2749,6 +2790,27 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2768,9 +2830,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2795,21 +2854,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2846,6 +2890,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3114,17 +3161,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="116"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3150,17 +3197,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="113"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3186,17 +3233,17 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="103"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3222,17 +3269,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3258,17 +3305,17 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="103"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3291,14 +3338,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -3321,14 +3368,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -3351,12 +3398,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -3379,12 +3426,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3950,10 +3997,10 @@
       <c r="B26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="97"/>
+      <c r="D26" s="104"/>
       <c r="E26" s="30" t="s">
         <v>64</v>
       </c>
@@ -3990,10 +4037,10 @@
       <c r="B27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="99"/>
+      <c r="D27" s="106"/>
       <c r="E27" s="33" t="s">
         <v>33</v>
       </c>
@@ -4028,10 +4075,10 @@
       <c r="B28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="100" t="s">
+      <c r="C28" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="101"/>
+      <c r="D28" s="108"/>
       <c r="E28" s="37" t="s">
         <v>24</v>
       </c>
@@ -10433,6 +10480,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -10442,12 +10495,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -17097,17 +17144,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="116"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>80</v>
@@ -17135,15 +17182,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -17169,15 +17216,15 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -17203,17 +17250,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -17239,13 +17286,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -17268,14 +17315,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -17298,14 +17345,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -17328,12 +17375,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -17356,12 +17403,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -17949,10 +17996,10 @@
       <c r="B26" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="99"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="65" t="s">
         <v>64</v>
       </c>
@@ -17989,10 +18036,10 @@
       <c r="B27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="121"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="69" t="s">
         <v>33</v>
       </c>
@@ -18027,8 +18074,8 @@
       <c r="B28" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="68"/>
       <c r="F28" s="71" t="s">
         <v>83</v>
@@ -18063,8 +18110,8 @@
       <c r="B29" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="101"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="108"/>
       <c r="E29" s="37"/>
       <c r="F29" s="73" t="s">
         <v>83</v>
@@ -24497,10 +24544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -24550,17 +24597,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="116"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>80</v>
@@ -24588,17 +24635,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="113"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -24631,10 +24678,10 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="103"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -24660,17 +24707,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -24696,13 +24743,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -24725,14 +24772,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -24755,14 +24802,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -24785,12 +24832,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -24813,12 +24860,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -25227,26 +25274,22 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="11.25" customHeight="1">
+    <row r="21" spans="1:26" s="96" customFormat="1" ht="11.25" customHeight="1">
       <c r="A21" s="52">
         <v>8</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>50</v>
+        <v>203</v>
+      </c>
+      <c r="D21" s="130" t="s">
+        <v>204</v>
       </c>
       <c r="E21" s="59"/>
-      <c r="F21" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>83</v>
-      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -25272,21 +25315,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>55</v>
+        <v>139</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>50</v>
       </c>
       <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="79"/>
+      <c r="F22" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>83</v>
+      </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -25310,10 +25355,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="78" t="s">
         <v>55</v>
@@ -25322,7 +25367,9 @@
       <c r="F23" s="59"/>
       <c r="G23" s="79"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -25346,19 +25393,17 @@
         <v>11</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>32</v>
+        <v>141</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>55</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
-      <c r="G24" s="56" t="s">
-        <v>147</v>
-      </c>
+      <c r="G24" s="79"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -25379,24 +25424,22 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="11.25" customHeight="1">
+    <row r="25" spans="1:26" s="96" customFormat="1" ht="11.25" customHeight="1">
       <c r="A25" s="52">
         <v>12</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>50</v>
+        <v>202</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>204</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
-      <c r="G25" s="79" t="s">
-        <v>199</v>
-      </c>
+      <c r="G25" s="79"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -25422,17 +25465,19 @@
         <v>13</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>144</v>
+        <v>156</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>142</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
-      <c r="G26" s="79"/>
+      <c r="G26" s="56" t="s">
+        <v>147</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -25457,18 +25502,20 @@
       <c r="A27" s="52">
         <v>14</v>
       </c>
-      <c r="B27" s="80" t="s">
-        <v>186</v>
+      <c r="B27" s="77" t="s">
+        <v>193</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>39</v>
+        <v>143</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>50</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
-      <c r="G27" s="79"/>
+      <c r="G27" s="79" t="s">
+        <v>199</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -25493,22 +25540,20 @@
       <c r="A28" s="52">
         <v>15</v>
       </c>
-      <c r="B28" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>39</v>
+      <c r="B28" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>32</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
       <c r="G28" s="79"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -25527,15 +25572,15 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" s="91" customFormat="1" ht="11.25" customHeight="1">
+    <row r="29" spans="1:26" ht="11.25" customHeight="1">
       <c r="A29" s="52">
         <v>16</v>
       </c>
-      <c r="B29" s="94" t="s">
-        <v>187</v>
+      <c r="B29" s="80" t="s">
+        <v>186</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D29" s="59" t="s">
         <v>39</v>
@@ -25563,24 +25608,26 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" s="93" customFormat="1" ht="11.25" customHeight="1">
+    <row r="30" spans="1:26" ht="11.25" customHeight="1">
       <c r="A30" s="52">
         <v>17</v>
       </c>
-      <c r="B30" s="77" t="s">
-        <v>158</v>
+      <c r="B30" s="94" t="s">
+        <v>185</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
       <c r="G30" s="79"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -25599,20 +25646,24 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="11.25" customHeight="1">
+    <row r="31" spans="1:26" s="91" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="52">
         <v>18</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
       <c r="G31" s="79"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="57" t="s">
-        <v>102</v>
-      </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -25631,13 +25682,19 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="11.25" customHeight="1">
+    <row r="32" spans="1:26" s="93" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="52">
         <v>19</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>101</v>
+      </c>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
       <c r="G32" s="79"/>
@@ -25665,20 +25722,16 @@
       <c r="A33" s="52">
         <v>20</v>
       </c>
-      <c r="B33" s="59" t="s">
-        <v>83</v>
-      </c>
+      <c r="B33" s="77"/>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
-      <c r="F33" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>83</v>
-      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="57" t="s">
+        <v>102</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -25698,19 +25751,15 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A34" s="81"/>
-      <c r="B34" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>83</v>
-      </c>
+      <c r="A34" s="52">
+        <v>21</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -25732,13 +25781,19 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>83</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -25760,15 +25815,19 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>83</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -25790,25 +25849,13 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A37" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="66" t="s">
-        <v>21</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -25830,23 +25877,15 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A38" s="67">
-        <v>1</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="70"/>
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -25868,20 +25907,24 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A39" s="67">
-        <v>2</v>
-      </c>
-      <c r="B39" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>83</v>
+      <c r="A39" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="106"/>
+      <c r="E39" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="66" t="s">
+        <v>21</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -25904,21 +25947,23 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A40" s="35">
-        <v>3</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="74" t="s">
-        <v>83</v>
-      </c>
+      <c r="A40" s="67">
+        <v>1</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="122"/>
+      <c r="E40" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="70"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -25940,13 +25985,21 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="67">
+        <v>2</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="123"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="72" t="s">
+        <v>83</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -25968,13 +26021,21 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="A42" s="35">
+        <v>3</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="118"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>83</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -25997,9 +26058,7 @@
     </row>
     <row r="43" spans="1:26" ht="11.25" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -26027,9 +26086,7 @@
     </row>
     <row r="44" spans="1:26" ht="11.25" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -26057,7 +26114,9 @@
     </row>
     <row r="45" spans="1:26" ht="11.25" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -26085,7 +26144,9 @@
     </row>
     <row r="46" spans="1:26" ht="11.25" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -31543,22 +31604,76 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="241" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A241" s="3"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3"/>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="3"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
+      <c r="Y241" s="3"/>
+      <c r="Z241" s="3"/>
+    </row>
+    <row r="242" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A242" s="3"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="3"/>
+      <c r="T242" s="3"/>
+      <c r="U242" s="3"/>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
+      <c r="Y242" s="3"/>
+      <c r="Z242" s="3"/>
+    </row>
+    <row r="243" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="244" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="245" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="246" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="250" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -32305,12 +32420,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C5:D5"/>
@@ -32320,8 +32437,8 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32391,17 +32508,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="116"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -32427,17 +32544,17 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="113"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -32463,17 +32580,17 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="103"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -32499,17 +32616,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -32535,13 +32652,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -32564,14 +32681,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -32594,14 +32711,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -32624,12 +32741,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -32652,12 +32769,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -33215,10 +33332,10 @@
       <c r="B26" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="99"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="65" t="s">
         <v>64</v>
       </c>
@@ -33255,10 +33372,10 @@
       <c r="B27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="121"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="69" t="s">
         <v>33</v>
       </c>
@@ -33293,8 +33410,8 @@
       <c r="B28" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="68"/>
       <c r="F28" s="71" t="s">
         <v>83</v>
@@ -33329,8 +33446,8 @@
       <c r="B29" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="101"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="108"/>
       <c r="E29" s="37"/>
       <c r="F29" s="73" t="s">
         <v>83</v>
@@ -39820,17 +39937,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="116"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -39856,15 +39973,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -39897,8 +40014,8 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -39924,17 +40041,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -39960,13 +40077,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -39989,14 +40106,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -40019,14 +40136,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -40049,12 +40166,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -40077,12 +40194,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -40520,10 +40637,10 @@
       <c r="B23" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="99"/>
+      <c r="D23" s="106"/>
       <c r="E23" s="65" t="s">
         <v>64</v>
       </c>
@@ -40560,10 +40677,10 @@
       <c r="B24" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="121"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="69" t="s">
         <v>33</v>
       </c>
@@ -40598,8 +40715,8 @@
       <c r="B25" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="68"/>
       <c r="F25" s="71" t="s">
         <v>83</v>
@@ -40634,8 +40751,8 @@
       <c r="B26" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="101"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="37"/>
       <c r="F26" s="73" t="s">
         <v>83</v>
@@ -47128,17 +47245,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="116"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -47164,15 +47281,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -47198,15 +47315,15 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -47232,17 +47349,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -47268,13 +47385,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -47297,14 +47414,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -47327,14 +47444,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -47357,12 +47474,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -47385,12 +47502,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -47892,10 +48009,10 @@
       <c r="B24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="99"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="65" t="s">
         <v>64</v>
       </c>
@@ -47932,10 +48049,10 @@
       <c r="B25" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="121"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="69" t="s">
         <v>33</v>
       </c>
@@ -47970,8 +48087,8 @@
       <c r="B26" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="68"/>
       <c r="F26" s="71" t="s">
         <v>83</v>
@@ -48006,8 +48123,8 @@
       <c r="B27" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="101"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="37"/>
       <c r="F27" s="73" t="s">
         <v>83</v>
@@ -54494,17 +54611,17 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="116"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -54530,15 +54647,15 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -54564,15 +54681,15 @@
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -54598,17 +54715,17 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -54634,13 +54751,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -54663,14 +54780,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -54693,14 +54810,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -54723,12 +54840,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -54751,12 +54868,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -55252,10 +55369,10 @@
       <c r="B24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="99"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="65" t="s">
         <v>64</v>
       </c>
@@ -55292,10 +55409,10 @@
       <c r="B25" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="121"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="69" t="s">
         <v>33</v>
       </c>
@@ -55330,8 +55447,8 @@
       <c r="B26" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="68"/>
       <c r="F26" s="71" t="s">
         <v>83</v>
@@ -55366,8 +55483,8 @@
       <c r="B27" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="101"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="37"/>
       <c r="F27" s="73" t="s">
         <v>83</v>
